--- a/CampeonatoQuadra2022.xlsx
+++ b/CampeonatoQuadra2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="225">
   <si>
     <t xml:space="preserve">temporada</t>
   </si>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo ùnico</t>
+    <t xml:space="preserve">Grupo Único</t>
   </si>
   <si>
     <t xml:space="preserve">00:47</t>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">MAGÉ VOLEIBOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo Único</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:22</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t xml:space="preserve">Clube Cinco de Julho</t>
   </si>
   <si>
-    <t xml:space="preserve">MUNDO VOLEI</t>
-  </si>
-  <si>
     <t xml:space="preserve">15/mai</t>
   </si>
   <si>
@@ -514,12 +508,24 @@
     <t xml:space="preserve">05/jun</t>
   </si>
   <si>
+    <t xml:space="preserve">09/jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19h30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA DOS AÇORES A(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20h30</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/jun</t>
   </si>
   <si>
-    <t xml:space="preserve">Arena 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quartas de Final</t>
   </si>
   <si>
@@ -527,9 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">3º</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASA DOS AÇORES A(40)</t>
   </si>
   <si>
     <t xml:space="preserve">12/jun</t>
@@ -702,7 +705,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -723,6 +726,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -767,12 +775,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,11 +807,11 @@
   </sheetPr>
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L84" activeCellId="0" sqref="L84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.28"/>
@@ -1266,10 +1278,10 @@
         <v>38</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1295,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>58</v>
@@ -1301,10 +1313,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>22</v>
@@ -1331,10 +1343,10 @@
         <v>50</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>58</v>
@@ -1366,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>28</v>
@@ -1399,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,13 +1422,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>35</v>
@@ -1431,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>25</v>
@@ -1458,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T10" s="0" t="s">
         <v>39</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,16 +1487,16 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>26</v>
@@ -1499,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>25</v>
@@ -1526,10 +1538,10 @@
         <v>50</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,16 +1552,16 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>26</v>
@@ -1591,10 +1603,10 @@
         <v>44</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,16 +1617,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>26</v>
@@ -1629,7 +1641,7 @@
         <v>42</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>25</v>
@@ -1656,10 +1668,10 @@
         <v>38</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,16 +1682,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>26</v>
@@ -1735,19 +1747,19 @@
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>27</v>
@@ -1756,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>17</v>
@@ -1789,7 +1801,7 @@
         <v>46</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>23</v>
@@ -1809,10 +1821,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
@@ -1821,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>25</v>
@@ -1851,10 +1863,10 @@
         <v>38</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>34</v>
@@ -1874,10 +1886,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
@@ -1886,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>25</v>
@@ -1916,10 +1928,10 @@
         <v>50</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,7 +1942,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>41</v>
@@ -1939,10 +1951,10 @@
         <v>24</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>27</v>
@@ -1951,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>25</v>
@@ -1981,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>48</v>
@@ -2004,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>27</v>
@@ -2016,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>25</v>
@@ -2046,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2072,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>53</v>
@@ -2069,10 +2081,10 @@
         <v>24</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>27</v>
@@ -2081,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>18</v>
@@ -2114,7 +2126,7 @@
         <v>39</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,16 +2137,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>26</v>
@@ -2146,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>21</v>
@@ -2176,10 +2188,10 @@
         <v>37</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,16 +2202,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>26</v>
@@ -2244,7 +2256,7 @@
         <v>39</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,13 +2267,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
@@ -2276,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>36</v>
@@ -2309,7 +2321,7 @@
         <v>39</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,13 +2332,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>35</v>
@@ -2344,7 +2356,7 @@
         <v>42</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>25</v>
@@ -2374,7 +2386,7 @@
         <v>46</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,13 +2397,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>35</v>
@@ -2439,7 +2451,7 @@
         <v>46</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,13 +2462,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>54</v>
@@ -2474,7 +2486,7 @@
         <v>42</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>25</v>
@@ -2504,7 +2516,7 @@
         <v>39</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>34</v>
@@ -2566,7 +2578,7 @@
         <v>50</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,7 +2589,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>57</v>
@@ -2598,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>23</v>
@@ -2639,13 +2651,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>35</v>
@@ -2663,7 +2675,7 @@
         <v>28</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>25</v>
@@ -2687,13 +2699,13 @@
         <v>38</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T29" s="0" t="s">
         <v>39</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,19 +2716,19 @@
         <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
@@ -2725,10 +2737,10 @@
         <v>3</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>25</v>
@@ -2758,7 +2770,7 @@
         <v>39</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,19 +2781,19 @@
         <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>27</v>
@@ -2790,10 +2802,10 @@
         <v>4</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>25</v>
@@ -2823,7 +2835,7 @@
         <v>46</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,19 +2846,19 @@
         <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>27</v>
@@ -2855,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>25</v>
@@ -2885,10 +2897,10 @@
         <v>37</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,19 +2911,19 @@
         <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>27</v>
@@ -2920,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>20</v>
@@ -2950,7 +2962,7 @@
         <v>50</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,19 +2973,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>27</v>
@@ -2982,10 +2994,10 @@
         <v>4</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>26</v>
@@ -3012,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,7 +3035,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>34</v>
@@ -3032,7 +3044,7 @@
         <v>58</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>26</v>
@@ -3044,10 +3056,10 @@
         <v>2</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>20</v>
@@ -3074,10 +3086,10 @@
         <v>50</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3100,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>57</v>
@@ -3097,7 +3109,7 @@
         <v>58</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>26</v>
@@ -3112,7 +3124,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>25</v>
@@ -3142,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,16 +3165,16 @@
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>26</v>
@@ -3177,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>25</v>
@@ -3204,7 +3216,7 @@
         <v>38</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>33</v>
@@ -3218,16 +3230,16 @@
         <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>26</v>
@@ -3242,7 +3254,7 @@
         <v>42</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>25</v>
@@ -3269,10 +3281,10 @@
         <v>50</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,10 +3295,10 @@
         <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>58</v>
@@ -3304,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>61</v>
@@ -3334,10 +3346,10 @@
         <v>38</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,16 +3360,16 @@
         <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>26</v>
@@ -3369,10 +3381,10 @@
         <v>3</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>25</v>
@@ -3399,10 +3411,10 @@
         <v>37</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,19 +3425,19 @@
         <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>27</v>
@@ -3434,10 +3446,10 @@
         <v>4</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>25</v>
@@ -3464,10 +3476,10 @@
         <v>38</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,7 +3490,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>34</v>
@@ -3487,7 +3499,7 @@
         <v>58</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>26</v>
@@ -3532,7 +3544,7 @@
         <v>46</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,7 +3555,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>57</v>
@@ -3552,7 +3564,7 @@
         <v>58</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>26</v>
@@ -3564,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>36</v>
@@ -3597,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,16 +3620,16 @@
         <v>21</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>26</v>
@@ -3629,10 +3641,10 @@
         <v>5</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>25</v>
@@ -3659,10 +3671,10 @@
         <v>38</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,16 +3685,16 @@
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>26</v>
@@ -3697,7 +3709,7 @@
         <v>28</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>22</v>
@@ -3724,10 +3736,10 @@
         <v>37</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,16 +3750,16 @@
         <v>21</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>26</v>
@@ -3759,10 +3771,10 @@
         <v>4</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>21</v>
@@ -3789,10 +3801,10 @@
         <v>50</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,13 +3815,13 @@
         <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>35</v>
@@ -3824,7 +3836,7 @@
         <v>9</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>28</v>
@@ -3857,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,13 +3880,13 @@
         <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>35</v>
@@ -3892,7 +3904,7 @@
         <v>42</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>25</v>
@@ -3916,13 +3928,13 @@
         <v>44</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T48" s="0" t="s">
         <v>46</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,13 +3945,13 @@
         <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>35</v>
@@ -3954,10 +3966,10 @@
         <v>11</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>25</v>
@@ -3978,10 +3990,10 @@
         <v>30</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T49" s="0" t="s">
         <v>39</v>
@@ -3995,13 +4007,13 @@
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>59</v>
@@ -4016,10 +4028,10 @@
         <v>4</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>25</v>
@@ -4046,7 +4058,7 @@
         <v>37</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,13 +4069,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>54</v>
@@ -4081,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>25</v>
@@ -4119,10 +4131,10 @@
         <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>24</v>
@@ -4184,7 +4196,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>23</v>
@@ -4193,7 +4205,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>26</v>
@@ -4238,7 +4250,7 @@
         <v>46</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4261,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>34</v>
@@ -4258,7 +4270,7 @@
         <v>24</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>26</v>
@@ -4270,10 +4282,10 @@
         <v>7</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>25</v>
@@ -4300,10 +4312,10 @@
         <v>37</v>
       </c>
       <c r="T54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4326,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>41</v>
@@ -4323,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>26</v>
@@ -4365,10 +4377,10 @@
         <v>44</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,7 +4391,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>48</v>
@@ -4388,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>26</v>
@@ -4400,10 +4412,10 @@
         <v>5</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>25</v>
@@ -4430,10 +4442,10 @@
         <v>44</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,7 +4456,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>34</v>
@@ -4465,10 +4477,10 @@
         <v>13</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>25</v>
@@ -4492,13 +4504,13 @@
         <v>31</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T57" s="0" t="s">
         <v>39</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4521,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>57</v>
@@ -4563,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +4586,10 @@
         <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>58</v>
@@ -4598,7 +4610,7 @@
         <v>29</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>25</v>
@@ -4622,7 +4634,7 @@
         <v>50</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T59" s="0" t="s">
         <v>46</v>
@@ -4636,10 +4648,10 @@
         <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>58</v>
@@ -4657,7 +4669,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>61</v>
@@ -4687,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,19 +4710,19 @@
         <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -4719,10 +4731,28 @@
         <v>5</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R61" s="0" t="s">
         <v>50</v>
@@ -4731,7 +4761,7 @@
         <v>37</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4742,40 +4772,58 @@
         <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>101</v>
+        <v>160</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>31</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,40 +4834,58 @@
         <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>162</v>
+        <v>97</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,40 +4896,40 @@
         <v>21</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>96</v>
+      <c r="F64" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,16 +4940,16 @@
         <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>26</v>
@@ -4892,22 +4958,40 @@
         <v>27</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,34 +5005,52 @@
         <v>161</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>35</v>
+      <c r="F66" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T66" s="0" t="s">
         <v>39</v>
@@ -4962,40 +5064,58 @@
         <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>91</v>
+      <c r="F67" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,16 +5126,16 @@
         <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>26</v>
@@ -5024,22 +5144,40 @@
         <v>27</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>43</v>
+        <v>154</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,10 +5188,10 @@
         <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>24</v>
@@ -5068,22 +5206,40 @@
         <v>27</v>
       </c>
       <c r="I69" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>156</v>
+      <c r="P69" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,16 +5250,16 @@
         <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>26</v>
@@ -5112,22 +5268,22 @@
         <v>27</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,16 +5294,16 @@
         <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>26</v>
@@ -5156,13 +5312,31 @@
         <v>27</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R71" s="0" t="s">
         <v>37</v>
@@ -5171,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,19 +5356,19 @@
         <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="E72" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>27</v>
@@ -5203,19 +5377,37 @@
         <v>9</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>86</v>
+        <v>135</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R72" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="T72" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,31 +5418,58 @@
         <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="S73" s="0" t="s">
-        <v>168</v>
+        <v>44</v>
+      </c>
+      <c r="T73" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,40 +5480,58 @@
         <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>91</v>
+      <c r="F74" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,40 +5542,58 @@
         <v>21</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="F75" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R75" s="0" t="s">
         <v>50</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,40 +5604,58 @@
         <v>21</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="0" t="s">
+      <c r="F76" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="L76" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="R76" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5393,40 +5666,58 @@
         <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="F77" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K77" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>136</v>
+      <c r="L77" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,13 +5728,13 @@
         <v>21</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>54</v>
@@ -5461,7 +5752,25 @@
         <v>55</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R78" s="0" t="s">
         <v>37</v>
@@ -5481,13 +5790,58 @@
         <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R79" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,13 +5852,13 @@
         <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>35</v>
@@ -5522,13 +5876,31 @@
         <v>36</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>37</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T80" s="0" t="s">
         <v>39</v>
@@ -5542,13 +5914,13 @@
         <v>21</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>35</v>
@@ -5566,13 +5938,31 @@
         <v>49</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="R81" s="0" t="s">
         <v>51</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T81" s="0" t="s">
         <v>46</v>
@@ -5586,16 +5976,16 @@
         <v>21</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>41</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>26</v>
@@ -5610,7 +6000,25 @@
         <v>42</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>149</v>
+        <v>102</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="R82" s="0" t="s">
         <v>31</v>
@@ -5619,7 +6027,7 @@
         <v>37</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,16 +6038,16 @@
         <v>21</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>26</v>
@@ -5656,6 +6064,24 @@
       <c r="K83" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="L83" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="R83" s="0" t="s">
         <v>31</v>
       </c>
@@ -5663,7 +6089,7 @@
         <v>44</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,13 +6100,13 @@
         <v>21</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,13 +6117,13 @@
         <v>21</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>35</v>
@@ -5706,16 +6132,16 @@
         <v>26</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>21</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S85" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,13 +6152,13 @@
         <v>21</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>35</v>
@@ -5741,16 +6167,16 @@
         <v>26</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>22</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,19 +6187,19 @@
         <v>21</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>27</v>
@@ -5782,10 +6208,10 @@
         <v>10</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>44</v>
@@ -5794,7 +6220,7 @@
         <v>50</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,31 +6231,31 @@
         <v>21</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F88" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H88" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>7</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,31 +6266,31 @@
         <v>21</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F89" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H89" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>8</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,22 +6301,22 @@
         <v>21</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>7</v>
@@ -5899,13 +6325,13 @@
         <v>42</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S90" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,22 +6342,22 @@
         <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>8</v>
@@ -5943,10 +6369,10 @@
         <v>43</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,31 +6383,31 @@
         <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>34</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S92" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,13 +6418,13 @@
         <v>21</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>41</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>59</v>
@@ -6013,10 +6439,10 @@
         <v>9</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R93" s="0" t="s">
         <v>31</v>
@@ -6025,7 +6451,7 @@
         <v>50</v>
       </c>
       <c r="T93" s="0" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,13 +6462,13 @@
         <v>21</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>54</v>
@@ -6051,16 +6477,16 @@
         <v>26</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>7</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S94" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,13 +6497,13 @@
         <v>21</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>54</v>
@@ -6086,16 +6512,16 @@
         <v>26</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>8</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S95" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,31 +6532,31 @@
         <v>21</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,13 +6567,13 @@
         <v>21</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>35</v>
@@ -6156,16 +6582,16 @@
         <v>26</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>23</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,13 +6602,13 @@
         <v>21</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>35</v>
@@ -6191,16 +6617,16 @@
         <v>26</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>24</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,13 +6637,13 @@
         <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>35</v>
@@ -6226,16 +6652,16 @@
         <v>26</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>25</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,13 +6672,13 @@
         <v>21</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>35</v>
@@ -6261,16 +6687,16 @@
         <v>26</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>26</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,31 +6707,31 @@
         <v>21</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,7 +6742,7 @@
         <v>21</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>23</v>
@@ -6325,22 +6751,22 @@
         <v>24</v>
       </c>
       <c r="F102" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H102" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I102" s="0" t="n">
         <v>9</v>
       </c>
       <c r="R102" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,7 +6777,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>34</v>
@@ -6360,22 +6786,22 @@
         <v>24</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>7</v>
       </c>
       <c r="R103" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6386,7 +6812,7 @@
         <v>21</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>41</v>
@@ -6395,22 +6821,22 @@
         <v>24</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I104" s="0" t="n">
         <v>8</v>
       </c>
       <c r="R104" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6421,7 +6847,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>48</v>
@@ -6430,22 +6856,22 @@
         <v>24</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I105" s="0" t="n">
         <v>7</v>
       </c>
       <c r="R105" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6456,7 +6882,7 @@
         <v>21</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>53</v>
@@ -6465,22 +6891,22 @@
         <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I106" s="0" t="n">
         <v>8</v>
       </c>
       <c r="R106" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,7 +6917,7 @@
         <v>21</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>34</v>
@@ -6500,22 +6926,22 @@
         <v>58</v>
       </c>
       <c r="F107" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H107" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I107" s="0" t="n">
         <v>10</v>
       </c>
       <c r="R107" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6526,7 +6952,7 @@
         <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>57</v>
@@ -6535,22 +6961,22 @@
         <v>58</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R108" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6561,31 +6987,31 @@
         <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>58</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>13</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,10 +7022,10 @@
         <v>21</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>58</v>
@@ -6611,16 +7037,16 @@
         <v>26</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,10 +7057,10 @@
         <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>58</v>
@@ -6646,16 +7072,16 @@
         <v>26</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>13</v>
       </c>
       <c r="R111" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6666,31 +7092,31 @@
         <v>21</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>24</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I112" s="0" t="n">
         <v>13</v>
       </c>
       <c r="R112" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +7127,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>23</v>
@@ -6710,13 +7136,13 @@
         <v>24</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>9</v>
@@ -6725,10 +7151,10 @@
         <v>28</v>
       </c>
       <c r="R113" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,7 +7165,7 @@
         <v>21</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>34</v>
@@ -6748,13 +7174,13 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>10</v>
@@ -6763,10 +7189,10 @@
         <v>29</v>
       </c>
       <c r="R114" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,7 +7203,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>41</v>
@@ -6786,22 +7212,22 @@
         <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I115" s="0" t="n">
         <v>10</v>
       </c>
       <c r="R115" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6812,7 +7238,7 @@
         <v>21</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>48</v>
@@ -6827,16 +7253,16 @@
         <v>26</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R116" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +7273,7 @@
         <v>21</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>53</v>
@@ -6856,22 +7282,22 @@
         <v>24</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R117" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,31 +7308,31 @@
         <v>21</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R118" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,31 +7343,31 @@
         <v>21</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R119" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,31 +7378,31 @@
         <v>21</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>14</v>
       </c>
       <c r="R120" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,31 +7413,31 @@
         <v>21</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I121" s="0" t="n">
         <v>15</v>
       </c>
       <c r="R121" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,13 +7448,13 @@
         <v>21</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>59</v>
@@ -7037,16 +7463,16 @@
         <v>26</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>14</v>
       </c>
       <c r="R122" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,7 +7483,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>34</v>
@@ -7066,22 +7492,22 @@
         <v>58</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I123" s="0" t="n">
         <v>14</v>
       </c>
       <c r="R123" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S123" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,7 +7518,7 @@
         <v>21</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>57</v>
@@ -7107,16 +7533,16 @@
         <v>26</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>25</v>
       </c>
       <c r="R124" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,10 +7553,10 @@
         <v>21</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>58</v>
@@ -7142,16 +7568,16 @@
         <v>26</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>26</v>
       </c>
       <c r="R125" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S125" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,10 +7588,10 @@
         <v>21</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>58</v>
@@ -7177,16 +7603,16 @@
         <v>26</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>9</v>
       </c>
       <c r="R126" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,10 +7623,10 @@
         <v>21</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>58</v>
@@ -7212,16 +7638,16 @@
         <v>26</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>10</v>
       </c>
       <c r="R127" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,13 +7658,13 @@
         <v>21</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>35</v>
@@ -7247,16 +7673,16 @@
         <v>26</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>27</v>
       </c>
       <c r="R128" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S128" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,13 +7693,13 @@
         <v>21</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>35</v>
@@ -7282,16 +7708,16 @@
         <v>26</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>28</v>
       </c>
       <c r="R129" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S129" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,13 +7728,13 @@
         <v>21</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>54</v>
@@ -7317,16 +7743,16 @@
         <v>26</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>11</v>
       </c>
       <c r="R130" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S130" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7337,13 +7763,13 @@
         <v>21</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>54</v>
@@ -7352,16 +7778,16 @@
         <v>26</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>12</v>
       </c>
       <c r="R131" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S131" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,13 +7798,13 @@
         <v>21</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>59</v>
@@ -7387,16 +7813,16 @@
         <v>26</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>15</v>
       </c>
       <c r="R132" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S132" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
